--- a/gantt-chart.xlsx
+++ b/gantt-chart.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgatton/Documents/GitHub/Project3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04196947-0009-6C4D-9E42-8D9B877EBF05}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F581CD4C-5B1A-5D49-8514-A30C714A2FD2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34280" yWindow="2440" windowWidth="27800" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2440" windowWidth="27800" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt chart1" sheetId="2" r:id="rId1"/>
     <sheet name="Gantt chart2" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Task</t>
   </si>
@@ -36,33 +36,6 @@
   </si>
   <si>
     <t>Gather requirements</t>
-  </si>
-  <si>
-    <t>UI Design</t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>Unit tests</t>
-  </si>
-  <si>
-    <t>System test</t>
-  </si>
-  <si>
-    <t>Beta 1</t>
-  </si>
-  <si>
-    <t>Bug fixes</t>
-  </si>
-  <si>
-    <t>Improvements</t>
-  </si>
-  <si>
-    <t>Final testing</t>
-  </si>
-  <si>
-    <t>Release version</t>
   </si>
   <si>
     <t>Task 1</t>
@@ -84,6 +57,24 @@
   </si>
   <si>
     <t>Initial source: https://www.ablebits.com/office-addins-blog/2014/05/23/make-gantt-chart-excel/</t>
+  </si>
+  <si>
+    <t>Learn Unity/C#/Sprites</t>
+  </si>
+  <si>
+    <t>Code Map</t>
+  </si>
+  <si>
+    <t>Code Players/Enemies</t>
+  </si>
+  <si>
+    <t>Debug/Test</t>
+  </si>
+  <si>
+    <t>Game Balancing</t>
+  </si>
+  <si>
+    <t>Publish Project</t>
   </si>
 </sst>
 </file>
@@ -287,77 +278,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt chart1'!$A$2:$A$11</c:f>
+              <c:f>'Gantt chart1'!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Gather requirements</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>UI Design</c:v>
+                  <c:v>Learn Unity/C#/Sprites</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Coding</c:v>
+                  <c:v>Code Map</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Unit tests</c:v>
+                  <c:v>Code Players/Enemies</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>System test</c:v>
+                  <c:v>Game Balancing</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Beta 1</c:v>
+                  <c:v>Debug/Test</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Bug fixes</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Improvements</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Final testing</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Release version</c:v>
+                  <c:v>Publish Project</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt chart1'!$B$2:$B$11</c:f>
+              <c:f>'Gantt chart1'!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>41730</c:v>
+                  <c:v>43173</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41736</c:v>
+                  <c:v>43175</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41748</c:v>
+                  <c:v>43185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41771</c:v>
+                  <c:v>43187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41778</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41790</c:v>
+                  <c:v>43194</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>41793</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>41808</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>41823</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>41830</c:v>
+                  <c:v>43197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -386,77 +359,59 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt chart1'!$A$2:$A$11</c:f>
+              <c:f>'Gantt chart1'!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Gather requirements</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>UI Design</c:v>
+                  <c:v>Learn Unity/C#/Sprites</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Coding</c:v>
+                  <c:v>Code Map</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Unit tests</c:v>
+                  <c:v>Code Players/Enemies</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>System test</c:v>
+                  <c:v>Game Balancing</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Beta 1</c:v>
+                  <c:v>Debug/Test</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Bug fixes</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Improvements</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Final testing</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Release version</c:v>
+                  <c:v>Publish Project</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt chart1'!$D$2:$D$11</c:f>
+              <c:f>'Gantt chart1'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -535,7 +490,8 @@
         <c:axId val="800775360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="41730"/>
+          <c:max val="43198"/>
+          <c:min val="43173"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1485,10 +1441,10 @@
       <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1881,7 +1837,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1910,173 +1866,125 @@
         <v>4</v>
       </c>
       <c r="B2" s="6">
-        <v>41730</v>
+        <v>43173</v>
       </c>
       <c r="C2" s="1">
         <f>B2+5</f>
-        <v>41735</v>
+        <v>43178</v>
       </c>
       <c r="D2">
-        <f>C2-B2</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7">
-        <f t="shared" ref="B3:B11" si="0">C2+1</f>
-        <v>41736</v>
+        <v>43175</v>
       </c>
       <c r="C3" s="3">
         <f>B3+11</f>
-        <v>41747</v>
+        <v>43186</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D11" si="1">C3-B3</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" s="6">
-        <f t="shared" si="0"/>
-        <v>41748</v>
+        <v>43185</v>
       </c>
       <c r="C4" s="1">
         <f>B4+22</f>
-        <v>41770</v>
+        <v>43207</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B5" s="7">
-        <f t="shared" si="0"/>
-        <v>41771</v>
+        <v>43187</v>
       </c>
       <c r="C5" s="3">
         <f>B5+6</f>
-        <v>41777</v>
+        <v>43193</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B6" s="6">
-        <f t="shared" si="0"/>
-        <v>41778</v>
+        <v>43191</v>
       </c>
       <c r="C6" s="1">
         <f>B6+11</f>
-        <v>41789</v>
+        <v>43202</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="7">
-        <f t="shared" si="0"/>
-        <v>41790</v>
-      </c>
-      <c r="C7" s="3">
-        <f>B7+2</f>
-        <v>41792</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="6">
+        <v>43194</v>
+      </c>
+      <c r="C7" s="1">
+        <f>B7+11</f>
+        <v>43205</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6">
-        <f t="shared" si="0"/>
-        <v>41793</v>
-      </c>
-      <c r="C8" s="1">
-        <f>B8+14</f>
-        <v>41807</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>14</v>
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7">
+        <v>43197</v>
+      </c>
+      <c r="C8" s="3">
+        <f>B8+2</f>
+        <v>43199</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="7">
-        <f t="shared" si="0"/>
-        <v>41808</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="3">
         <f>B9+14</f>
-        <v>41822</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" si="1"/>
         <v>14</v>
       </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6">
-        <f t="shared" si="0"/>
-        <v>41823</v>
-      </c>
+      <c r="B10" s="6"/>
       <c r="C10" s="1">
         <f>B10+6</f>
-        <v>41829</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
         <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="7">
-        <f t="shared" si="0"/>
-        <v>41830</v>
-      </c>
-      <c r="C11" s="3">
-        <f>B11+2</f>
-        <v>41832</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2115,7 +2023,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B2" s="8">
         <v>41730</v>
@@ -2131,7 +2039,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B3" s="9">
         <f t="shared" ref="B3:B11" si="0">C2+1</f>
@@ -2148,7 +2056,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B4" s="8">
         <f t="shared" si="0"/>
@@ -2165,7 +2073,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B5" s="9">
         <f t="shared" si="0"/>
@@ -2182,7 +2090,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B6" s="8">
         <f t="shared" si="0"/>
@@ -2199,7 +2107,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B7" s="9">
         <f t="shared" si="0"/>

--- a/gantt-chart.xlsx
+++ b/gantt-chart.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cgatton/Documents/GitHub/Project3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zach\Documents\GitHub\Project3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F581CD4C-5B1A-5D49-8514-A30C714A2FD2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2440" windowWidth="27800" windowHeight="14320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2440" windowWidth="27800" windowHeight="14320"/>
   </bookViews>
   <sheets>
-    <sheet name="Gantt chart1" sheetId="2" r:id="rId1"/>
-    <sheet name="Gantt chart2" sheetId="1" r:id="rId2"/>
+    <sheet name="real Gantt Chart" sheetId="3" r:id="rId1"/>
+    <sheet name="projected Gantt Chart" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Task</t>
   </si>
@@ -36,24 +35,6 @@
   </si>
   <si>
     <t>Gather requirements</t>
-  </si>
-  <si>
-    <t>Task 1</t>
-  </si>
-  <si>
-    <t>Task 2</t>
-  </si>
-  <si>
-    <t>Task 3</t>
-  </si>
-  <si>
-    <t>Task 4</t>
-  </si>
-  <si>
-    <t>Task 5</t>
-  </si>
-  <si>
-    <t>Task 6</t>
   </si>
   <si>
     <t>Initial source: https://www.ablebits.com/office-addins-blog/2014/05/23/make-gantt-chart-excel/</t>
@@ -80,10 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mmm"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -134,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -143,8 +121,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -198,7 +174,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="TableStyleMedium18 2" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="TableStyleMedium18 2" pivot="0" count="5">
       <tableStyleElement type="headerRow" dxfId="4"/>
       <tableStyleElement type="firstColumn" dxfId="3"/>
       <tableStyleElement type="lastColumn" dxfId="2"/>
@@ -224,7 +200,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -259,7 +235,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Gantt chart1'!$B$1</c:f>
+              <c:f>'real Gantt Chart'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -278,7 +254,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt chart1'!$A$2:$A$10</c:f>
+              <c:f>'real Gantt Chart'!$A$2:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -307,7 +283,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt chart1'!$B$2:$B$10</c:f>
+              <c:f>'real Gantt Chart'!$B$2:$B$10</c:f>
               <c:numCache>
                 <c:formatCode>d\-mmm</c:formatCode>
                 <c:ptCount val="9"/>
@@ -321,21 +297,12 @@
                   <c:v>43185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43187</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43191</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>43194</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>43197</c:v>
+                  <c:v>43185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EB23-8C4B-BAA9-3082C675A997}"/>
             </c:ext>
@@ -359,7 +326,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt chart1'!$A$2:$A$10</c:f>
+              <c:f>'real Gantt Chart'!$A$2:$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -388,7 +355,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt chart1'!$D$2:$D$10</c:f>
+              <c:f>'real Gantt Chart'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -399,24 +366,15 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EB23-8C4B-BAA9-3082C675A997}"/>
             </c:ext>
@@ -432,11 +390,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="800772560"/>
-        <c:axId val="800775360"/>
+        <c:axId val="394027424"/>
+        <c:axId val="394027816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="800772560"/>
+        <c:axId val="394027424"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -479,7 +437,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="800775360"/>
+        <c:crossAx val="394027816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -487,7 +445,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="800775360"/>
+        <c:axId val="394027816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43198"/>
@@ -540,7 +498,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="800772560"/>
+        <c:crossAx val="394027424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="15"/>
@@ -591,7 +549,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -606,7 +564,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2237819596874715"/>
+          <c:y val="7.1052278845101499E-2"/>
+          <c:w val="0.7073119914064796"/>
+          <c:h val="0.86647823344158914"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -616,7 +584,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Gantt chart2'!$B$1</c:f>
+              <c:f>'projected Gantt Chart'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -630,64 +598,71 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt chart2'!$A$2:$A$7</c:f>
+              <c:f>'projected Gantt Chart'!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Task 1</c:v>
+                  <c:v>Gather requirements</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Task 2</c:v>
+                  <c:v>Learn Unity/C#/Sprites</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Task 3</c:v>
+                  <c:v>Code Map</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Task 4</c:v>
+                  <c:v>Code Players/Enemies</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Task 5</c:v>
+                  <c:v>Game Balancing</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Task 6</c:v>
+                  <c:v>Debug/Test</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Publish Project</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt chart2'!$B$2:$B$7</c:f>
+              <c:f>'projected Gantt Chart'!$B$2:$B$10</c:f>
               <c:numCache>
-                <c:formatCode>mmm</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>41730</c:v>
+                  <c:v>43173</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41791</c:v>
+                  <c:v>43175</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41857</c:v>
+                  <c:v>43185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41880</c:v>
+                  <c:v>43187</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41927</c:v>
+                  <c:v>43191</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41939</c:v>
+                  <c:v>43194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-04B2-9F46-AA49-0DCF0B45D45A}"/>
+              <c16:uniqueId val="{00000000-EB23-8C4B-BAA9-3082C675A997}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -698,108 +673,77 @@
             <c:v>Duration</c:v>
           </c:tx>
           <c:spPr>
-            <a:gradFill>
-              <a:gsLst>
-                <a:gs pos="69710">
-                  <a:srgbClr val="90A985"/>
-                </a:gs>
-                <a:gs pos="48660">
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="5000"/>
-                    <a:lumOff val="95000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="45000"/>
-                    <a:lumOff val="55000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="96500">
-                  <a:srgbClr val="B0C6E1"/>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="30000"/>
-                    <a:lumOff val="70000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="1"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-04B2-9F46-AA49-0DCF0B45D45A}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Gantt chart2'!$A$2:$A$7</c:f>
+              <c:f>'projected Gantt Chart'!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Task 1</c:v>
+                  <c:v>Gather requirements</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Task 2</c:v>
+                  <c:v>Learn Unity/C#/Sprites</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Task 3</c:v>
+                  <c:v>Code Map</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Task 4</c:v>
+                  <c:v>Code Players/Enemies</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Task 5</c:v>
+                  <c:v>Game Balancing</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Task 6</c:v>
+                  <c:v>Debug/Test</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Publish Project</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gantt chart2'!$D$2:$D$7</c:f>
+              <c:f>'projected Gantt Chart'!$D$2:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-04B2-9F46-AA49-0DCF0B45D45A}"/>
+              <c16:uniqueId val="{00000001-EB23-8C4B-BAA9-3082C675A997}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -813,38 +757,54 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="1036725872"/>
-        <c:axId val="211498896"/>
+        <c:axId val="390918424"/>
+        <c:axId val="394030560"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1036725872"/>
+        <c:axId val="390918424"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="75000"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:round/>
           </a:ln>
-          <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="12700" dir="9000000" algn="ctr" rotWithShape="0">
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="211498896"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="394030560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -852,32 +812,101 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="211498896"/>
+        <c:axId val="394030560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="41730"/>
+          <c:max val="43198"/>
+          <c:min val="43173"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="mmm" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
           <a:effectLst/>
         </c:spPr>
-        <c:crossAx val="1036725872"/>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390918424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="31"/>
+        <c:majorUnit val="15"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -926,7 +955,552 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1448,14 +2022,16 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1476,23 +2052,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="14" name="Chart 13">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1589,23 +2165,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1641,23 +2200,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1833,21 +2375,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1861,7 +2403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1876,9 +2418,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B3" s="7">
         <v>43175</v>
@@ -1891,9 +2433,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B4" s="6">
         <v>43185</v>
@@ -1903,70 +2445,56 @@
         <v>43207</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B5" s="7">
-        <v>43187</v>
+        <v>43185</v>
       </c>
       <c r="C5" s="3">
         <f>B5+6</f>
-        <v>43193</v>
+        <v>43191</v>
       </c>
       <c r="D5" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6">
-        <v>43191</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B6" s="6"/>
       <c r="C6" s="1">
         <f>B6+11</f>
-        <v>43202</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="6">
-        <v>43194</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B7" s="6"/>
       <c r="C7" s="1">
         <f>B7+11</f>
-        <v>43205</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="7">
-        <v>43197</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B8" s="7"/>
       <c r="C8" s="3">
         <f>B8+2</f>
-        <v>43199</v>
-      </c>
-      <c r="D8" s="4">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="7"/>
       <c r="C9" s="3">
@@ -1975,16 +2503,16 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="6"/>
       <c r="C10" s="1">
         <f>B10+6</f>
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1994,20 +2522,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="23.6328125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2021,119 +2550,134 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="8">
-        <v>41730</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="6">
+        <v>43173</v>
       </c>
       <c r="C2" s="1">
-        <f>B2+60</f>
-        <v>41790</v>
+        <f>B2+5</f>
+        <v>43178</v>
       </c>
       <c r="D2">
-        <f>C2-B2</f>
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="9">
-        <f t="shared" ref="B3:B11" si="0">C2+1</f>
-        <v>41791</v>
+      <c r="B3" s="7">
+        <v>43175</v>
       </c>
       <c r="C3" s="3">
-        <f>B3+65</f>
-        <v>41856</v>
+        <f>B3+11</f>
+        <v>43186</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D6" si="1">C3-B3</f>
-        <v>65</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8">
-        <f t="shared" si="0"/>
-        <v>41857</v>
+      <c r="B4" s="6">
+        <v>43185</v>
       </c>
       <c r="C4" s="1">
         <f>B4+22</f>
-        <v>41879</v>
+        <v>43207</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9">
-        <f t="shared" si="0"/>
-        <v>41880</v>
+      <c r="B5" s="7">
+        <v>43187</v>
       </c>
       <c r="C5" s="3">
-        <f>B5+46</f>
-        <v>41926</v>
+        <f>B5+6</f>
+        <v>43193</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="1"/>
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="8">
-        <f t="shared" si="0"/>
-        <v>41927</v>
+        <v>10</v>
+      </c>
+      <c r="B6" s="6">
+        <v>43191</v>
       </c>
       <c r="C6" s="1">
         <f>B6+11</f>
-        <v>41938</v>
+        <v>43202</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="6">
+        <v>43194</v>
+      </c>
+      <c r="C7" s="1">
+        <f>B7+11</f>
+        <v>43205</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="B8" s="7">
+        <v>43197</v>
+      </c>
+      <c r="C8" s="3">
+        <f>B8+2</f>
+        <v>43199</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="9">
-        <f t="shared" si="0"/>
-        <v>41939</v>
-      </c>
-      <c r="C7" s="3">
-        <f>B7+40</f>
-        <v>41979</v>
-      </c>
-      <c r="D7" s="2">
-        <f>C7-B7</f>
-        <v>40</v>
-      </c>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="3">
+        <f>B9+14</f>
+        <v>14</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C8" s="1"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="6"/>
+      <c r="C10" s="1">
+        <f>B10+6</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="7">
-        <f t="shared" si="0"/>
-        <v>1</v>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/gantt-chart.xlsx
+++ b/gantt-chart.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Task</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Publish Project</t>
+  </si>
+  <si>
+    <t>Merge Characters and map</t>
+  </si>
+  <si>
+    <t>Home, Character, Level UI</t>
   </si>
 </sst>
 </file>
@@ -256,7 +262,7 @@
             <c:strRef>
               <c:f>'real Gantt Chart'!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Gather requirements</c:v>
                 </c:pt>
@@ -270,12 +276,18 @@
                   <c:v>Code Players/Enemies</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Home, Character, Level UI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Merge Characters and map</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Game Balancing</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Debug/Test</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Publish Project</c:v>
                 </c:pt>
               </c:strCache>
@@ -297,7 +309,13 @@
                   <c:v>43185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43185</c:v>
+                  <c:v>43187</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43192</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -328,7 +346,7 @@
             <c:strRef>
               <c:f>'real Gantt Chart'!$A$2:$A$10</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>Gather requirements</c:v>
                 </c:pt>
@@ -342,12 +360,18 @@
                   <c:v>Code Players/Enemies</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Home, Character, Level UI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Merge Characters and map</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>Game Balancing</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>Debug/Test</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>Publish Project</c:v>
                 </c:pt>
               </c:strCache>
@@ -370,6 +394,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -390,11 +420,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="394027424"/>
-        <c:axId val="394027816"/>
+        <c:axId val="406692472"/>
+        <c:axId val="406692864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="394027424"/>
+        <c:axId val="406692472"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -437,7 +467,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394027816"/>
+        <c:crossAx val="406692864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -445,7 +475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="394027816"/>
+        <c:axId val="406692864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43198"/>
@@ -498,7 +528,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394027424"/>
+        <c:crossAx val="406692472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="15"/>
@@ -757,11 +787,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="390918424"/>
-        <c:axId val="394030560"/>
+        <c:axId val="406693648"/>
+        <c:axId val="406694040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="390918424"/>
+        <c:axId val="406693648"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -804,7 +834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="394030560"/>
+        <c:crossAx val="406694040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -812,7 +842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="394030560"/>
+        <c:axId val="406694040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43198"/>
@@ -865,7 +895,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390918424"/>
+        <c:crossAx val="406693648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="15"/>
@@ -2025,7 +2055,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2068,7 +2098,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2379,12 +2409,12 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.453125" customWidth="1"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
     <col min="2" max="2" width="13.36328125" customWidth="1"/>
     <col min="3" max="3" width="23.6328125" hidden="1" customWidth="1"/>
   </cols>
@@ -2453,11 +2483,11 @@
         <v>8</v>
       </c>
       <c r="B5" s="7">
-        <v>43185</v>
+        <v>43187</v>
       </c>
       <c r="C5" s="3">
         <f>B5+6</f>
-        <v>43191</v>
+        <v>43193</v>
       </c>
       <c r="D5" s="2">
         <v>7</v>
@@ -2465,50 +2495,61 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="1">
-        <f>B6+11</f>
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="6">
+        <v>43192</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="B7" s="6">
+        <v>43194</v>
+      </c>
       <c r="C7" s="1">
         <f>B7+11</f>
-        <v>11</v>
+        <v>43205</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="1">
+        <f>B8+11</f>
         <v>11</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="3">
-        <f>B8+2</f>
-        <v>2</v>
-      </c>
-      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
       <c r="B9" s="7"/>
       <c r="C9" s="3">
-        <f>B9+14</f>
-        <v>14</v>
-      </c>
-      <c r="D9" s="2"/>
+        <f>B9+2</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="6"/>
-      <c r="C10" s="1">
-        <f>B10+6</f>
-        <v>6</v>
-      </c>
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="3">
+        <f>B10+14</f>
+        <v>14</v>
+      </c>
+      <c r="D10" s="2"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
